--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.4014646666667</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N2">
-        <v>370.204394</v>
+        <v>712.013108</v>
       </c>
       <c r="O2">
-        <v>0.9838440244846903</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P2">
-        <v>0.9838440244846903</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q2">
-        <v>26.44003895330156</v>
+        <v>238.71663471916</v>
       </c>
       <c r="R2">
-        <v>237.960350579714</v>
+        <v>2148.44971247244</v>
       </c>
       <c r="S2">
-        <v>0.000805756811753008</v>
+        <v>0.003756949947431548</v>
       </c>
       <c r="T2">
-        <v>0.0008057568117530079</v>
+        <v>0.003756949947431548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.076057</v>
       </c>
       <c r="O3">
-        <v>0.008174836245796433</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P3">
-        <v>0.008174836245796433</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q3">
-        <v>0.2196923327241112</v>
+        <v>1.03130963039</v>
       </c>
       <c r="R3">
-        <v>1.977230994517</v>
+        <v>9.28178667351</v>
       </c>
       <c r="S3">
-        <v>6.695095793732051E-06</v>
+        <v>1.62308699862397E-05</v>
       </c>
       <c r="T3">
-        <v>6.69509579373205E-06</v>
+        <v>1.62308699862397E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H4">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I4">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J4">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.001057333333333</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N4">
-        <v>3.003172</v>
+        <v>4.763852</v>
       </c>
       <c r="O4">
-        <v>0.007981139269513202</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P4">
-        <v>0.0079811392695132</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q4">
-        <v>0.2144868779257778</v>
+        <v>1.59717666004</v>
       </c>
       <c r="R4">
-        <v>1.930381901332</v>
+        <v>14.37458994036</v>
       </c>
       <c r="S4">
-        <v>6.536460223283858E-06</v>
+        <v>2.513655060543025E-05</v>
       </c>
       <c r="T4">
-        <v>6.536460223283856E-06</v>
+        <v>2.513655060543025E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>253.9688163333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H5">
-        <v>761.9064490000001</v>
+        <v>3.01743</v>
       </c>
       <c r="I5">
-        <v>0.9707700119635848</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J5">
-        <v>0.9707700119635847</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>123.4014646666667</v>
+        <v>0.08261766666666666</v>
       </c>
       <c r="N5">
-        <v>370.204394</v>
+        <v>0.247853</v>
       </c>
       <c r="O5">
-        <v>0.9838440244846903</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="P5">
-        <v>0.9838440244846903</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="Q5">
-        <v>31340.12391519299</v>
+        <v>0.08309767530999999</v>
       </c>
       <c r="R5">
-        <v>282061.1152367369</v>
+        <v>0.74787907779</v>
       </c>
       <c r="S5">
-        <v>0.9550862754193042</v>
+        <v>1.30780080430872E-06</v>
       </c>
       <c r="T5">
-        <v>0.9550862754193041</v>
+        <v>1.30780080430872E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J6">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.025352333333333</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N6">
-        <v>3.076057</v>
+        <v>712.013108</v>
       </c>
       <c r="O6">
-        <v>0.008174836245796433</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P6">
-        <v>0.008174836245796433</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q6">
-        <v>260.4075184212882</v>
+        <v>60276.37541752595</v>
       </c>
       <c r="R6">
-        <v>2343.667665791594</v>
+        <v>542487.3787577335</v>
       </c>
       <c r="S6">
-        <v>0.00793588588013215</v>
+        <v>0.9486365528009955</v>
       </c>
       <c r="T6">
-        <v>0.00793588588013215</v>
+        <v>0.9486365528009956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J7">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.001057333333333</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N7">
-        <v>3.003172</v>
+        <v>3.076057</v>
       </c>
       <c r="O7">
-        <v>0.007981139269513202</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P7">
-        <v>0.0079811392695132</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q7">
-        <v>254.2373460284698</v>
+        <v>260.4075184212882</v>
       </c>
       <c r="R7">
-        <v>2288.136114256228</v>
+        <v>2343.667665791593</v>
       </c>
       <c r="S7">
-        <v>0.007747850664148367</v>
+        <v>0.004098323578474586</v>
       </c>
       <c r="T7">
-        <v>0.007747850664148364</v>
+        <v>0.004098323578474587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.418211666666667</v>
+        <v>253.9688163333334</v>
       </c>
       <c r="H8">
-        <v>22.254635</v>
+        <v>761.9064490000001</v>
       </c>
       <c r="I8">
-        <v>0.02835536083668877</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J8">
-        <v>0.02835536083668877</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.4014646666667</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N8">
-        <v>370.204394</v>
+        <v>4.763852</v>
       </c>
       <c r="O8">
-        <v>0.9838440244846903</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P8">
-        <v>0.9838440244846903</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q8">
-        <v>915.4181848740211</v>
+        <v>403.289951209061</v>
       </c>
       <c r="R8">
-        <v>8238.76366386619</v>
+        <v>3629.609560881548</v>
       </c>
       <c r="S8">
-        <v>0.02789725232128346</v>
+        <v>0.006347023795710974</v>
       </c>
       <c r="T8">
-        <v>0.02789725232128346</v>
+        <v>0.006347023795710975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.418211666666667</v>
+        <v>253.9688163333334</v>
       </c>
       <c r="H9">
-        <v>22.254635</v>
+        <v>761.9064490000001</v>
       </c>
       <c r="I9">
-        <v>0.02835536083668877</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J9">
-        <v>0.02835536083668877</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.025352333333333</v>
+        <v>0.08261766666666666</v>
       </c>
       <c r="N9">
-        <v>3.076057</v>
+        <v>0.247853</v>
       </c>
       <c r="O9">
-        <v>0.008174836245796433</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="P9">
-        <v>0.008174836245796433</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="Q9">
-        <v>7.606280641577223</v>
+        <v>20.98231101155522</v>
       </c>
       <c r="R9">
-        <v>68.45652577419501</v>
+        <v>188.840799103997</v>
       </c>
       <c r="S9">
-        <v>0.0002318004315304</v>
+        <v>0.000330222032262621</v>
       </c>
       <c r="T9">
-        <v>0.0002318004315304</v>
+        <v>0.0003302220322626211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H10">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.001057333333333</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N10">
-        <v>3.003172</v>
+        <v>712.013108</v>
       </c>
       <c r="O10">
-        <v>0.007981139269513202</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P10">
-        <v>0.0079811392695132</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q10">
-        <v>7.426055189135557</v>
+        <v>2215.943412793949</v>
       </c>
       <c r="R10">
-        <v>66.83449670222001</v>
+        <v>19943.49071514554</v>
       </c>
       <c r="S10">
-        <v>0.0002263080838749135</v>
+        <v>0.03487477317197331</v>
       </c>
       <c r="T10">
-        <v>0.0002263080838749134</v>
+        <v>0.03487477317197331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.014556</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H11">
-        <v>0.043668</v>
+        <v>28.010005</v>
       </c>
       <c r="I11">
-        <v>5.563883195642279E-05</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J11">
-        <v>5.563883195642279E-05</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>123.4014646666667</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N11">
-        <v>370.204394</v>
+        <v>3.076057</v>
       </c>
       <c r="O11">
-        <v>0.9838440244846903</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P11">
-        <v>0.9838440244846903</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q11">
-        <v>1.796231719688</v>
+        <v>9.573374661142779</v>
       </c>
       <c r="R11">
-        <v>16.166085477192</v>
+        <v>86.160371950285</v>
       </c>
       <c r="S11">
-        <v>5.473993234963439E-05</v>
+        <v>0.0001506668752776117</v>
       </c>
       <c r="T11">
-        <v>5.473993234963439E-05</v>
+        <v>0.0001506668752776117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.014556</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H12">
-        <v>0.043668</v>
+        <v>28.010005</v>
       </c>
       <c r="I12">
-        <v>5.563883195642279E-05</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J12">
-        <v>5.563883195642279E-05</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.025352333333333</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N12">
-        <v>3.076057</v>
+        <v>4.763852</v>
       </c>
       <c r="O12">
-        <v>0.008174836245796433</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P12">
-        <v>0.008174836245796433</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q12">
-        <v>0.014925028564</v>
+        <v>14.82616870436222</v>
       </c>
       <c r="R12">
-        <v>0.134325257076</v>
+        <v>133.43551833926</v>
       </c>
       <c r="S12">
-        <v>4.548383401511419E-07</v>
+        <v>0.0002333359541533207</v>
       </c>
       <c r="T12">
-        <v>4.548383401511419E-07</v>
+        <v>0.0002333359541533207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.336668333333334</v>
+      </c>
+      <c r="H13">
+        <v>28.010005</v>
+      </c>
+      <c r="I13">
+        <v>0.03527091597053946</v>
+      </c>
+      <c r="J13">
+        <v>0.03527091597053946</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.08261766666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.247853</v>
+      </c>
+      <c r="O13">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="P13">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="Q13">
+        <v>0.7713737521405555</v>
+      </c>
+      <c r="R13">
+        <v>6.942363769265</v>
+      </c>
+      <c r="S13">
+        <v>1.213996913522145E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.213996913522145E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.204976</v>
+      </c>
+      <c r="I14">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="J14">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>237.3377026666667</v>
+      </c>
+      <c r="N14">
+        <v>712.013108</v>
+      </c>
+      <c r="O14">
+        <v>0.9887685707142667</v>
+      </c>
+      <c r="P14">
+        <v>0.9887685707142667</v>
+      </c>
+      <c r="Q14">
+        <v>95.32874520282311</v>
+      </c>
+      <c r="R14">
+        <v>857.9587068254081</v>
+      </c>
+      <c r="S14">
+        <v>0.001500294793866395</v>
+      </c>
+      <c r="T14">
+        <v>0.001500294793866395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.204976</v>
+      </c>
+      <c r="I15">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="J15">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.025352333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.076057</v>
+      </c>
+      <c r="O15">
+        <v>0.004271702935173513</v>
+      </c>
+      <c r="P15">
+        <v>0.004271702935173513</v>
+      </c>
+      <c r="Q15">
+        <v>0.4118416510702222</v>
+      </c>
+      <c r="R15">
+        <v>3.706574859632</v>
+      </c>
+      <c r="S15">
+        <v>6.48161143507527E-06</v>
+      </c>
+      <c r="T15">
+        <v>6.48161143507527E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.014556</v>
-      </c>
-      <c r="H13">
-        <v>0.043668</v>
-      </c>
-      <c r="I13">
-        <v>5.563883195642279E-05</v>
-      </c>
-      <c r="J13">
-        <v>5.563883195642279E-05</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.001057333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.003172</v>
-      </c>
-      <c r="O13">
-        <v>0.007981139269513202</v>
-      </c>
-      <c r="P13">
-        <v>0.0079811392695132</v>
-      </c>
-      <c r="Q13">
-        <v>0.014571390544</v>
-      </c>
-      <c r="R13">
-        <v>0.131142514896</v>
-      </c>
-      <c r="S13">
-        <v>4.44061266637252E-07</v>
-      </c>
-      <c r="T13">
-        <v>4.440612666372519E-07</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.204976</v>
+      </c>
+      <c r="I16">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="J16">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.587950666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.763852</v>
+      </c>
+      <c r="O16">
+        <v>0.006615534293133127</v>
+      </c>
+      <c r="P16">
+        <v>0.006615534293133127</v>
+      </c>
+      <c r="Q16">
+        <v>0.6378141475057778</v>
+      </c>
+      <c r="R16">
+        <v>5.740327327552</v>
+      </c>
+      <c r="S16">
+        <v>1.003799266340194E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.003799266340194E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4016586666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.204976</v>
+      </c>
+      <c r="I17">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="J17">
+        <v>0.001517336653189343</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08261766666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.247853</v>
+      </c>
+      <c r="O17">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="P17">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="Q17">
+        <v>0.03318410183644444</v>
+      </c>
+      <c r="R17">
+        <v>0.298656916528</v>
+      </c>
+      <c r="S17">
+        <v>5.222552244700636E-07</v>
+      </c>
+      <c r="T17">
+        <v>5.222552244700636E-07</v>
       </c>
     </row>
   </sheetData>
